--- a/team_specific_matrix/St. Andrews_B.xlsx
+++ b/team_specific_matrix/St. Andrews_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2647058823529412</v>
+        <v>0.2448979591836735</v>
       </c>
       <c r="C2">
-        <v>0.4705882352941176</v>
+        <v>0.4897959183673469</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.05882352941176471</v>
+        <v>0.08163265306122448</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1176470588235294</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.08823529411764706</v>
+        <v>0.08163265306122448</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1176470588235294</v>
+        <v>0.16</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.5294117647058824</v>
+        <v>0.6</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.3529411764705883</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1666666666666667</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.8333333333333334</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -734,7 +734,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.07142857142857142</v>
+        <v>0.05</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.07142857142857142</v>
+        <v>0.05</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.4285714285714285</v>
+        <v>0.4</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.07142857142857142</v>
+        <v>0.1</v>
       </c>
       <c r="R6">
-        <v>0.07142857142857142</v>
+        <v>0.05</v>
       </c>
       <c r="S6">
-        <v>0.2857142857142857</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,7 +793,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.08333333333333333</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -805,7 +805,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.08333333333333333</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.08333333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.08333333333333333</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.25</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="R7">
         <v>0.1666666666666667</v>
       </c>
       <c r="S7">
-        <v>0.25</v>
+        <v>0.2777777777777778</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,13 +852,13 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.06666666666666667</v>
+        <v>0.04651162790697674</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.03333333333333333</v>
+        <v>0.02325581395348837</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.2</v>
+        <v>0.1627906976744186</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.03333333333333333</v>
+        <v>0.02325581395348837</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1</v>
+        <v>0.09302325581395349</v>
       </c>
       <c r="R8">
-        <v>0.2666666666666667</v>
+        <v>0.2790697674418605</v>
       </c>
       <c r="S8">
-        <v>0.3</v>
+        <v>0.3720930232558139</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,7 +911,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.25</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -959,10 +959,10 @@
         <v>0</v>
       </c>
       <c r="R9">
-        <v>0.25</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="S9">
-        <v>0.5</v>
+        <v>0.5454545454545454</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.09051724137931035</v>
+        <v>0.1042345276872964</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02155172413793104</v>
+        <v>0.01954397394136808</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.02586206896551724</v>
+        <v>0.02931596091205212</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1681034482758621</v>
+        <v>0.1758957654723127</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.008620689655172414</v>
+        <v>0.006514657980456026</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2887931034482759</v>
+        <v>0.247557003257329</v>
       </c>
       <c r="R10">
-        <v>0.1077586206896552</v>
+        <v>0.1335504885993485</v>
       </c>
       <c r="S10">
-        <v>0.2887931034482759</v>
+        <v>0.2833876221498371</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.2272727272727273</v>
+        <v>0.2068965517241379</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.04545454545454546</v>
+        <v>0.03448275862068965</v>
       </c>
       <c r="K11">
-        <v>0.2727272727272727</v>
+        <v>0.2068965517241379</v>
       </c>
       <c r="L11">
-        <v>0.4545454545454545</v>
+        <v>0.5517241379310345</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.6</v>
+        <v>0.6875</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0</v>
+        <v>0.0625</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1283,16 +1283,16 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.04347826086956522</v>
+        <v>0.1</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.8260869565217391</v>
+        <v>0.7</v>
       </c>
       <c r="K15">
-        <v>0.04347826086956522</v>
+        <v>0.03333333333333333</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1304,7 +1304,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.08695652173913043</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.05882352941176471</v>
+        <v>0.08</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.05882352941176471</v>
+        <v>0.04</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="J16">
-        <v>0.4705882352941176</v>
+        <v>0.4</v>
       </c>
       <c r="K16">
-        <v>0.05882352941176471</v>
+        <v>0.04</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.05882352941176471</v>
+        <v>0.04</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.1764705882352941</v>
+        <v>0.12</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1176470588235294</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1401,28 +1401,28 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.0958904109589041</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="I17">
-        <v>0.0684931506849315</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="J17">
-        <v>0.6164383561643836</v>
+        <v>0.611764705882353</v>
       </c>
       <c r="K17">
-        <v>0.0821917808219178</v>
+        <v>0.07058823529411765</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.0136986301369863</v>
+        <v>0.01176470588235294</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.0547945205479452</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.0684931506849315</v>
+        <v>0.07058823529411765</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1460,16 +1460,16 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.2368421052631579</v>
+        <v>0.2068965517241379</v>
       </c>
       <c r="I18">
-        <v>0.02631578947368421</v>
+        <v>0.03448275862068965</v>
       </c>
       <c r="J18">
-        <v>0.5263157894736842</v>
+        <v>0.5517241379310345</v>
       </c>
       <c r="K18">
-        <v>0.1052631578947368</v>
+        <v>0.1206896551724138</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1481,7 +1481,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.02631578947368421</v>
+        <v>0.01724137931034483</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.07894736842105263</v>
+        <v>0.06896551724137931</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01851851851851852</v>
+        <v>0.02013422818791946</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.1111111111111111</v>
+        <v>0.1140939597315436</v>
       </c>
       <c r="I19">
-        <v>0.01851851851851852</v>
+        <v>0.02013422818791946</v>
       </c>
       <c r="J19">
-        <v>0.7129629629629629</v>
+        <v>0.697986577181208</v>
       </c>
       <c r="K19">
-        <v>0.04629629629629629</v>
+        <v>0.06040268456375839</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.006711409395973154</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.06481481481481481</v>
+        <v>0.06040268456375839</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.02777777777777778</v>
+        <v>0.02013422818791946</v>
       </c>
     </row>
   </sheetData>
